--- a/tables/confidence_level.xlsx
+++ b/tables/confidence_level.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouzhiwei/R/bookdown/bookdown/allccs_bookdown/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R codes\my package\allccs_bookdown\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,14 +412,14 @@
       <selection activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -444,7 +447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -458,7 +461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -472,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -486,7 +489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
